--- a/backend/downloads/output.xlsx
+++ b/backend/downloads/output.xlsx
@@ -329,7 +329,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -528,8 +528,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
-        <f aca="false">'[1]Simulation Costs'!B10</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>16000</v>
@@ -541,7 +540,7 @@
         <v>14000</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>

--- a/backend/downloads/output.xlsx
+++ b/backend/downloads/output.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,78 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Students and Marks details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrolment No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hij</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upfront Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margin</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">CashFlow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
   </si>
   <si>
     <t xml:space="preserve">Revenue</t>
   </si>
   <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simulation</t>
+    <t xml:space="preserve">Unit Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imp.Fee(If Any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No ofCus(Total)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No of Cus.®</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No of Cus.(N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBITA</t>
   </si>
 </sst>
 </file>
@@ -104,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -135,14 +87,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -163,8 +107,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFD04"/>
       </patternFill>
     </fill>
   </fills>
@@ -202,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,8 +163,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -239,7 +187,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFD04"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -260,7 +208,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFD04"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -295,32 +243,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Input Costs"/>
-      <sheetName val="Simulation Costs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>cost</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>10</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -329,7 +251,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,7 +268,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -357,9 +279,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -370,182 +290,186 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="B5" s="2" t="n">
+        <v>34200</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="B6" s="2" t="n">
+        <v>101574</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>243740</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>551841</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>22</v>
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1114612</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>379</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>735</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>480</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f aca="false">'[1]Input Costs'!B5</f>
-        <v>cost</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <f aca="false">'[1]Input Costs'!B9</f>
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>8000</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>6000</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <f aca="false">'[1]Simulation Costs'!B6</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>60000</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>14000</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>18000</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P2"/>
+    <mergeCell ref="A13:H14"/>
+    <mergeCell ref="I13:P14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/backend/downloads/output.xlsx
+++ b/backend/downloads/output.xlsx
@@ -146,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -155,6 +155,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -167,7 +171,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,10 +252,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -267,6 +271,14 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -277,40 +289,48 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -318,45 +338,45 @@
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>34200</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>399</v>
+        <v>-399</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>101574</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>314</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="n">
@@ -370,22 +390,22 @@
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>243740</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>345</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>177</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>120</v>
       </c>
       <c r="H7" s="1" t="n">
@@ -396,22 +416,22 @@
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>551841</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>379</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>364</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>124</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>240</v>
       </c>
       <c r="H8" s="1" t="n">
@@ -422,22 +442,22 @@
       <c r="A9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>1114612</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="6" t="n">
         <v>379</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>735</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>255</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="6" t="n">
         <v>480</v>
       </c>
       <c r="H9" s="1" t="n">
@@ -446,23 +466,59 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
